--- a/data/income_statement/2digits/size/31_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/31_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>31-Manufacture of furniture</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>31-Manufacture of furniture</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,839 +841,949 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2052610.07387</v>
+        <v>2134347.3956</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2157243.48511</v>
+        <v>2266655.15862</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2935158.6953</v>
+        <v>3039508.06137</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3162364.68686</v>
+        <v>3358654.91709</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4191873.98471</v>
+        <v>4272970.150690001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4545441.11066</v>
+        <v>4630548.22813</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5039895.13841</v>
+        <v>5292023.54922</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5409458.33115</v>
+        <v>5775291.01829</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>6657202.21026</v>
+        <v>7180333.30614</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>9571831.894030001</v>
+        <v>9546784.119760001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>11178530.62184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11315521.63854</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>12678687.402</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1822931.31928</v>
+        <v>1894096.3837</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1910476.36276</v>
+        <v>2001206.78668</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2633696.48319</v>
+        <v>2713743.1292</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2786566.75349</v>
+        <v>2959393.09397</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3675356.00868</v>
+        <v>3734297.50081</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3949448.36722</v>
+        <v>4022368.10057</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4429504.86898</v>
+        <v>4642842.33887</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4784794.44975</v>
+        <v>5108008.16032</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5977484.97575</v>
+        <v>6420714.76015</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8321273.65588</v>
+        <v>8300792.66946</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>9338728.51901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>9415421.79438</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>10485943.763</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>211648.04606</v>
+        <v>221693.91915</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>227887.20469</v>
+        <v>245644.75651</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>277869.95983</v>
+        <v>302289.07077</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>351865.7618</v>
+        <v>373962.16794</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>484019.20937</v>
+        <v>505589.30055</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>563217.9127699999</v>
+        <v>575428.1616100001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>562824.5115599999</v>
+        <v>597583.92161</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>566009.45444</v>
+        <v>603355.62203</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>615081.1868500001</v>
+        <v>689600.81676</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1136837.27799</v>
+        <v>1128909.66559</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1714843.14458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1778981.38591</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2050826.512</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>18030.70853</v>
+        <v>18557.09275</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>18879.91766</v>
+        <v>19803.61543</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>23592.25228</v>
+        <v>23475.8614</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>23932.17157</v>
+        <v>25299.65518</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>32498.76666</v>
+        <v>33083.34933</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>32774.83067</v>
+        <v>32751.96595</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>47565.75786999999</v>
+        <v>51597.28874</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>58654.42696</v>
+        <v>63927.23594</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>64636.04766</v>
+        <v>70017.72923</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>113720.96016</v>
+        <v>117081.78471</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>124958.95825</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>121118.45825</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>141917.127</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>33260.77494</v>
+        <v>35641.07035</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>30247.9492</v>
+        <v>34411.84433</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>34654.93185</v>
+        <v>35044.76206</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>32404.48516</v>
+        <v>33795.14468</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>39917.77118</v>
+        <v>42829.22921</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>41031.95108</v>
+        <v>43999.48554</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>37505.27162</v>
+        <v>44827.48770000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>42191.26957</v>
+        <v>45447.25975</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>39917.84083</v>
+        <v>44431.08248</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>74031.8848</v>
+        <v>71836.42844</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>113094.31026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>116125.74427</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>182753.159</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>19969.31699</v>
+        <v>22239.38428</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>17016.41646</v>
+        <v>19258.69226</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>22570.88326</v>
+        <v>22926.39691</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>23665.79627</v>
+        <v>24694.3413</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>25915.88813</v>
+        <v>26056.71738</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>28687.68927</v>
+        <v>28554.25139</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>26540.70958</v>
+        <v>30598.61111</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>31660.69509</v>
+        <v>31566.15466</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>31754.05483</v>
+        <v>35385.99084000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>56301.41309</v>
+        <v>56135.81709</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>93537.80197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>97448.76342</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>155360.259</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>11554.13192</v>
+        <v>11578.50474</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>11066.92383</v>
+        <v>12786.69515</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>10310.72979</v>
+        <v>10300.61374</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>7966.5815</v>
+        <v>8327.237440000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>12233.60416</v>
+        <v>14939.41583</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>10257.24883</v>
+        <v>13093.77281</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>8683.34519</v>
+        <v>11768.85046</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>8483.426099999999</v>
+        <v>11662.36519</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>4846.22032</v>
+        <v>5230.29556</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>10320.09209</v>
+        <v>7873.88722</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>12824.58031</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>11900.39541</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>20559.991</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1737.32603</v>
+        <v>1823.18133</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2164.60891</v>
+        <v>2366.45692</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1773.3188</v>
+        <v>1817.75141</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>772.10739</v>
+        <v>773.56594</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1768.27889</v>
+        <v>1833.096</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2087.01298</v>
+        <v>2351.46134</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2281.21685</v>
+        <v>2460.02613</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2047.14838</v>
+        <v>2218.7399</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>3317.56568</v>
+        <v>3814.79608</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>7410.37962</v>
+        <v>7826.72413</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>6731.92798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>6776.585440000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6832.909</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2019349.29893</v>
+        <v>2098706.32525</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2126995.53591</v>
+        <v>2232243.31429</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2900503.76345</v>
+        <v>3004463.29931</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3129960.2017</v>
+        <v>3324859.77241</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4151956.21353</v>
+        <v>4230140.92148</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4504409.15958</v>
+        <v>4586548.74259</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5002389.86679</v>
+        <v>5247196.061520001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5367267.06158</v>
+        <v>5729843.75854</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6617284.36943</v>
+        <v>7135902.22366</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>9497800.009229999</v>
+        <v>9474947.69132</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>11065436.31158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11199395.89427</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>12495934.243</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1698607.70276</v>
+        <v>1767369.18132</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1783408.88752</v>
+        <v>1870390.94978</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2462999.54593</v>
+        <v>2557596.43203</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2674853.90382</v>
+        <v>2843650.11497</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3511313.63014</v>
+        <v>3582100.97618</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3838578.53538</v>
+        <v>3910408.01004</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4285579.56393</v>
+        <v>4492619.37506</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4597817.35568</v>
+        <v>4902845.64842</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5711936.459989999</v>
+        <v>6165092.128029999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8246646.44735</v>
+        <v>8234017.531520001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>9553505.82518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9686139.815860001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10820220.499</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1254165.66514</v>
+        <v>1316206.37252</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1326413.89608</v>
+        <v>1391921.64352</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1760073.98384</v>
+        <v>1856007.33728</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1861276.25579</v>
+        <v>2018807.48687</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2452920.82654</v>
+        <v>2539981.66005</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2660076.10837</v>
+        <v>2741883.37591</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3009427.3889</v>
+        <v>3198587.16055</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3263000.86964</v>
+        <v>3520040.50694</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>4176283.15427</v>
+        <v>4544956.00253</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>6057745.38839</v>
+        <v>6059089.84776</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>6955132.71108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>7032718.95734</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7965211.832</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>372537.44075</v>
+        <v>379780.20944</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>392326.94071</v>
+        <v>413740.73393</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>608394.34386</v>
+        <v>608475.84856</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>696055.01579</v>
+        <v>708654.81941</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>935614.71954</v>
+        <v>922165.8213300001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1019336.2269</v>
+        <v>1006709.03703</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1112134.46469</v>
+        <v>1130076.47456</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1085999.60387</v>
+        <v>1127805.40546</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1268097.11445</v>
+        <v>1332357.30041</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1835802.82781</v>
+        <v>1804019.13209</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2135131.86761</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2161356.89438</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2403786.417</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>67243.21861</v>
+        <v>66636.99971999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>63524.58932</v>
+        <v>63431.91653</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>84458.33331999999</v>
+        <v>82539.64831999999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>115911.30874</v>
+        <v>114890.48778</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>117312.67895</v>
+        <v>114534.33992</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>151263.57699</v>
+        <v>153686.7619</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>149777.02244</v>
+        <v>150544.60248</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>234132.53577</v>
+        <v>238016.60751</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>241205.94972</v>
+        <v>258494.13805</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>316705.5819700001</v>
+        <v>326130.35547</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>432477.7567</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>447554.56524</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>413615.22</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>4661.378259999999</v>
+        <v>4745.599639999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1143.46141</v>
+        <v>1296.6558</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>10072.88491</v>
+        <v>10573.59787</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1611.3235</v>
+        <v>1297.32091</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>5465.405110000001</v>
+        <v>5419.15488</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>7902.62312</v>
+        <v>8128.8352</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>14240.6879</v>
+        <v>13411.13747</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>14684.3464</v>
+        <v>16983.12851</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>26350.24155</v>
+        <v>29284.68704</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>36392.64918</v>
+        <v>44778.19620000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>30763.48979</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>44509.3989</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>37607.03</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>320741.59617</v>
+        <v>331337.14393</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>343586.64839</v>
+        <v>361852.36451</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>437504.21752</v>
+        <v>446866.8672799999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>455106.29788</v>
+        <v>481209.65744</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>640642.58339</v>
+        <v>648039.9452999999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>665830.6242000001</v>
+        <v>676140.73255</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>716810.3028600001</v>
+        <v>754576.68646</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>769449.7058999999</v>
+        <v>826998.11012</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>905347.9094400001</v>
+        <v>970810.09563</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1251153.56188</v>
+        <v>1240930.1598</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1511930.4864</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1513256.07841</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1675713.744</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>234927.21376</v>
+        <v>238769.06005</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>262632.8748</v>
+        <v>272494.32066</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>339157.88368</v>
+        <v>343829.87546</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>363543.08877</v>
+        <v>379661.24729</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>483582.61061</v>
+        <v>483811.9494700001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>501855.36096</v>
+        <v>504574.90812</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>533435.63539</v>
+        <v>550776.74804</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>608904.9154299999</v>
+        <v>647016.69115</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>678448.6095</v>
+        <v>711920.82381</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>892393.97265</v>
+        <v>872756.2734299999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1042425.27932</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1028759.1843</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1078481.262</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>794.8147299999999</v>
+        <v>805.10002</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>431.85342</v>
+        <v>385.80189</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>628.87953</v>
+        <v>632.71128</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>366.73254</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>716.03565</v>
+        <v>591.41367</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>629.9915999999999</v>
+        <v>646.32994</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>746.5863499999999</v>
+        <v>1233.97448</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>645.5078599999999</v>
+        <v>531.35496</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>353.42141</v>
+        <v>444.00214</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1652.54066</v>
+        <v>1627.48444</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>1829.36043</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>689.143</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>66846.78743</v>
+        <v>69076.78809999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>69732.20196999999</v>
+        <v>73999.78075000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>87681.98647</v>
+        <v>89912.01814</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>97107.13536</v>
+        <v>105482.20689</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>134114.6331</v>
+        <v>140631.72388</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>128656.77155</v>
+        <v>136723.16962</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>138101.72858</v>
+        <v>146765.97633</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>163268.41709</v>
+        <v>184535.55196</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>171356.64645</v>
+        <v>191383.25632</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>261751.34518</v>
+        <v>260191.10783</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>301278.0699</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>297389.246</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>296950.105</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>167285.6116</v>
+        <v>168887.17193</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>192468.81941</v>
+        <v>198108.73802</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>250847.01768</v>
+        <v>253285.14604</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>266069.22087</v>
+        <v>273812.30786</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>348751.94186</v>
+        <v>342588.81192</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>372568.59781</v>
+        <v>367205.40856</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>394587.32046</v>
+        <v>402776.79723</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>444990.99048</v>
+        <v>461949.78423</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>506738.54164</v>
+        <v>520093.56535</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>628990.0868099999</v>
+        <v>610937.6811599999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>739317.84899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>729540.57787</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>780842.014</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>85814.38240999999</v>
+        <v>92568.08387999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>80953.77359</v>
+        <v>89358.04384999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>98346.33384000001</v>
+        <v>103036.99182</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>91563.20911</v>
+        <v>101548.41015</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>157059.97278</v>
+        <v>164227.99583</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>163975.26324</v>
+        <v>171565.82443</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>183374.66747</v>
+        <v>203799.93842</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>160544.79047</v>
+        <v>179981.41897</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>226899.29994</v>
+        <v>258889.27182</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>358759.58923</v>
+        <v>368173.88637</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>469505.20708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>484496.89411</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>597232.482</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>13854.39795</v>
+        <v>15720.0819</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>14127.37081</v>
+        <v>17572.27084</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>20770.76335</v>
+        <v>22259.46868</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>14286.94901</v>
+        <v>15265.37107</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>28096.14102</v>
+        <v>29685.31539</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>26947.54343</v>
+        <v>31721.2599</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>47074.57779</v>
+        <v>56793.5444</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>44554.89321</v>
+        <v>51108.27766</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>45572.20629</v>
+        <v>51437.03597</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>169036.7903</v>
+        <v>169323.40705</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>114324.40528</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>127927.93851</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>226374.243</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0.004</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>740.99464</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>10.15</v>
@@ -1790,22 +1801,27 @@
         <v>6.320729999999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>32.12691</v>
+        <v>11.51645</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>0.11714</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2323.95857</v>
+        <v>4560.127769999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>75.74749</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>6.714060000000001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>308.184</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1823,13 +1839,13 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>1209.6</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>2.2</v>
+        <v>494.78999</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>1669.96908</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0.878</v>
@@ -1838,208 +1854,238 @@
         <v>967.41078</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>914.5692700000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>4905.239769999999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2284.5964</v>
+        <v>2528.09205</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1704.29723</v>
+        <v>2190.41292</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3023.68408</v>
+        <v>2140.53335</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2607.33614</v>
+        <v>2655.98829</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>3232.12482</v>
+        <v>3450.99395</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3638.356</v>
+        <v>3703.24216</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>4371.17217</v>
+        <v>5212.46475</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4186.73569</v>
+        <v>4419.23918</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>6304.24636</v>
+        <v>7855.321269999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>11546.82688</v>
+        <v>11826.49612</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>16986.59453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>18923.87513</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>15038.733</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>60.88476</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>377.63934</v>
+        <v>377.63183</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>168.62481</v>
+        <v>150.52225</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>12.5053</v>
+        <v>87.00530000000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>204.50252</v>
+        <v>230.25779</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>37.27916</v>
+        <v>44.59526</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>163.11225</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>291.20056</v>
+        <v>320.59791</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>365.72464</v>
+        <v>361.51271</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>311.18334</v>
+        <v>254.15675</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>491.41272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>372.65867</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>81.38</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>215.78159</v>
+        <v>999.5434799999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>389.77906</v>
+        <v>630.90656</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>495.15472</v>
+        <v>469.7002199999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>278.59777</v>
+        <v>339.81626</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>385.15222</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>446.53678</v>
+        <v>445.0876</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>842.71696</v>
+        <v>934.82999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>520.13136</v>
+        <v>577.86901</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1167.9753</v>
+        <v>1159.73983</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1930.23829</v>
+        <v>1513.12008</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>2078.39844</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2050.19107</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>766.941</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>128.61062</v>
+        <v>164.44062</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>79.55186</v>
+        <v>79.04953999999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>72.78964999999999</v>
+        <v>82.69580999999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>237.43297</v>
+        <v>170.03376</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>340.98497</v>
+        <v>330.44339</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>536.4017299999999</v>
+        <v>448.80193</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>454.30254</v>
+        <v>490.31968</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>460.28411</v>
+        <v>351.2009</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>645.02064</v>
+        <v>668.24986</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>797.8971</v>
+        <v>797.73243</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1729.86397</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1729.25955</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2959.142</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>6976.64762</v>
+        <v>7759.68021</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>5714.723059999999</v>
+        <v>7517.295099999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>11651.91507</v>
+        <v>13237.02476</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4845.5312</v>
+        <v>5334.53846</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>15663.88293</v>
+        <v>18511.59691</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>11845.13966</v>
+        <v>14653.68418</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>29654.68763</v>
+        <v>38894.98937</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>23392.21987</v>
+        <v>27093.80776</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>20114.99327</v>
+        <v>25112.63484</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>117858.71874</v>
+        <v>124391.28481</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>50788.6897</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>65368.43883</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>176825.132</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>49.95761</v>
@@ -2063,10 +2109,10 @@
         <v>134.0526</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>154.23754</v>
+        <v>156.09292</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>204.33896</v>
+        <v>226.57615</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>191.41475</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>373.72241</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>735.754</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.0925</v>
@@ -2090,7 +2141,7 @@
         <v>11.74049</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>23.2422</v>
+        <v>14.8862</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>30.20487</v>
@@ -2099,181 +2150,206 @@
         <v>78.16109</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>20.2746</v>
+        <v>14.3855</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>34.97643</v>
+        <v>6.59909</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>158.20855</v>
+        <v>152.89893</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>154.38183</v>
+        <v>155.81365</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>142.5235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>157.86016</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>238.619</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>4137.82285</v>
+        <v>4157.38667</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5831.223190000001</v>
+        <v>6005.823179999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>5334.527349999999</v>
+        <v>6154.92462</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>6266.84561</v>
+        <v>6647.64498</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>8228.494070000001</v>
+        <v>6735.871639999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>10363.02575</v>
+        <v>11135.44442</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>11425.73831</v>
+        <v>10448.27954</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>15482.98074</v>
+        <v>16501.38536</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>16610.70343</v>
+        <v>15899.10724</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>32954.76002</v>
+        <v>24665.84991</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>40742.88325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>34039.97886</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>29420.358</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>13837.20388</v>
+        <v>15200.6233</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>11596.2629</v>
+        <v>12914.03506</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>17492.13815</v>
+        <v>18256.99517</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>10737.96077</v>
+        <v>11434.53878</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>17950.39074</v>
+        <v>18872.75364</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>20223.50365</v>
+        <v>22260.17736</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>32746.77808</v>
+        <v>44451.49363</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>27877.24868</v>
+        <v>36710.45013</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>36324.45214</v>
+        <v>37045.66161</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>118478.0677</v>
+        <v>133479.83756</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>65440.90590999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>81020.61223</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>171462.253</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>558.48883</v>
+        <v>539.5204</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>560.91026</v>
+        <v>507.16775</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>785.73586</v>
+        <v>734.9801199999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>822.21092</v>
+        <v>886.56825</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>908.76473</v>
+        <v>908.3806</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>668.6186899999999</v>
+        <v>820.1870799999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>636.38573</v>
+        <v>1277.56668</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1343.12451</v>
+        <v>1380.74953</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2163.62678</v>
+        <v>2594.17635</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1835.26403</v>
+        <v>1781.02184</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1992.56922</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1962.65655</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3830.513</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3276.1619</v>
+        <v>4056.07532</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1843.15617</v>
+        <v>1754.48065</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>3511.00271</v>
+        <v>3465.67976</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2491.54989</v>
+        <v>2478.00673</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3562.7655</v>
+        <v>3921.46568</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>6746.15647</v>
+        <v>6606.396559999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>11067.25657</v>
+        <v>14285.19373</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>4450.21335</v>
+        <v>5200.425429999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>11342.83753</v>
+        <v>6305.37878</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>14051.31486</v>
+        <v>15098.19475</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>10866.40449</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>10258.30102</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>16214.689</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>6.82778</v>
@@ -2282,76 +2358,86 @@
         <v>9.676110000000001</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>24.26541</v>
+        <v>61.49136</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>49.11818</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>103.0204</v>
+        <v>32.40861</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>74.54142</v>
+        <v>60.13413</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>248.42002</v>
+        <v>440.96699</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>154.57449</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>231.02569</v>
+        <v>231.02578</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>205.57305</v>
+        <v>6402.098599999999</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>1150.39283</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1150.148</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>7473.19851</v>
+        <v>7935.34188</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>5429.01358</v>
+        <v>6628.532889999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>9230.79925</v>
+        <v>10294.313</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>4619.21634</v>
+        <v>5419.60093</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>10111.21699</v>
+        <v>11286.51245</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>9154.39761</v>
+        <v>11734.29957</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>17449.84374</v>
+        <v>25073.90178</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>16076.06259</v>
+        <v>20132.2692</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>16961.31785</v>
+        <v>21620.90739</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>93324.75904999999</v>
+        <v>101252.12379</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>41168.68771</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>57137.81881</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>141648.821</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.38388</v>
@@ -2375,7 +2461,7 @@
         <v>158.32381</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>147.75281</v>
+        <v>146.79888</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>152.16634</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>459.02561</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>275.783</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>0.10816</v>
+        <v>0.1081</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>3.14703</v>
@@ -2402,616 +2493,694 @@
         <v>76.93459</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>90.5123</v>
+        <v>12.04518</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>44.47451</v>
+        <v>34.68716999999999</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0.00028</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0.00024</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0.08588</v>
+        <v>0.08574</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>39.01643</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>0.00029</v>
+        <v>4.578279999999999</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>0.0001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>12.44604</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2522.03482</v>
+        <v>2662.36594</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3729.97361</v>
+        <v>3990.64449</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3861.67139</v>
+        <v>3621.8674</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2662.43814</v>
+        <v>2586.28451</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3196.52888</v>
+        <v>2665.6794</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3579.78918</v>
+        <v>3039.15974</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3186.54797</v>
+        <v>3215.54064</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5705.43505</v>
+        <v>9695.546859999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>5434.46152</v>
+        <v>6102.99054</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>8806.528350000001</v>
+        <v>8687.192230000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>9803.825949999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>10039.97137</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8342.299000000001</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>31219.09302</v>
+        <v>37868.64161</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>24580.52077</v>
+        <v>30936.4336</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>32854.96586</v>
+        <v>36403.35213</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>38594.74304</v>
+        <v>44795.35391</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>50981.81297</v>
+        <v>50182.94627</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>53536.55285</v>
+        <v>59839.87838</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>68428.94687</v>
+        <v>80402.42032999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>77989.46864000001</v>
+        <v>95279.22040999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>91802.23586</v>
+        <v>112074.30139</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>197823.48266</v>
+        <v>198182.49654</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>215985.33747</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>238275.95707</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>187631.819</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>29097.24496</v>
+        <v>34548.28848</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>22976.46745</v>
+        <v>28042.43803</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>31212.80332</v>
+        <v>34764.29775</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>36663.44325</v>
+        <v>42667.76328</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>48672.24716</v>
+        <v>47921.73521</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>51046.3142</v>
+        <v>56660.40716</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>65603.02086</v>
+        <v>76072.47818000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>74873.62327</v>
+        <v>89809.51155</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>87363.58481999999</v>
+        <v>106583.47051</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>187318.90469</v>
+        <v>188099.03351</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>203759.80864</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>221652.49709</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>176310.169</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2121.84806</v>
+        <v>3320.35313</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1604.05332</v>
+        <v>2893.99557</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1642.16254</v>
+        <v>1639.05438</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1931.29979</v>
+        <v>2127.59063</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2309.56581</v>
+        <v>2261.21106</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2490.23865</v>
+        <v>3179.47122</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2825.92601</v>
+        <v>4329.942150000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>3115.84537</v>
+        <v>5469.708860000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>4438.65104</v>
+        <v>5490.83088</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>10504.57797</v>
+        <v>10083.46303</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>12225.52883</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>16623.45998</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>11321.65</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>54612.48346</v>
+        <v>55218.90087</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>58904.36073</v>
+        <v>63079.84603</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>68769.99318</v>
+        <v>70636.11320000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>56517.45431</v>
+        <v>60583.88853</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>116223.91009</v>
+        <v>124857.61131</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>117162.75017</v>
+        <v>121187.02859</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>129273.52031</v>
+        <v>135739.56886</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>99232.96636000001</v>
+        <v>99100.02609</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>144344.81823</v>
+        <v>161206.34479</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>211494.82917</v>
+        <v>205834.95932</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>302403.36898</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>293128.26332</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>464512.653</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>13793.50547</v>
+        <v>13207.23315</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>12170.11488</v>
+        <v>11180.34371</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>18540.4658</v>
+        <v>14807.97596</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>23037.00927</v>
+        <v>25153.11533</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>19317.94075</v>
+        <v>23575.45309</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>20925.24505</v>
+        <v>22273.86045</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>25477.46245</v>
+        <v>27833.52706</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>35479.76868</v>
+        <v>38597.85632</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>50809.22193</v>
+        <v>51405.6235</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>51868.98024</v>
+        <v>52320.65109000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>62799.36526</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>66845.96429999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>128491.117</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>302.76429</v>
+        <v>207.35294</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>135.38441</v>
+        <v>119.89344</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>282.02731</v>
+        <v>142.1701</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>42.73104</v>
+        <v>42.22482</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>68.60898</v>
+        <v>65.82503</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>46.33636</v>
+        <v>40.03043</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>124.68571</v>
+        <v>140.45439</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>274.07291</v>
+        <v>457.04082</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>105.12951</v>
+        <v>6620.79304</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>311.425</v>
+        <v>281.10179</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>637.93125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>674.3623100000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>257.067</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>13490.74118</v>
+        <v>12999.88021</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>12034.73047</v>
+        <v>11060.45027</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>18258.43849</v>
+        <v>14665.80586</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>22994.27823</v>
+        <v>25110.89051</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>19249.33177</v>
+        <v>23509.62806</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>20878.90869</v>
+        <v>22233.83002</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>25352.77674</v>
+        <v>27693.07267</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>35205.69577000001</v>
+        <v>38140.8155</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>50704.09242</v>
+        <v>44784.83046</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>51557.55524</v>
+        <v>52039.5493</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>62161.43401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>66171.60199</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>128234.05</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>12961.85935</v>
+        <v>13521.09227</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>12825.69884</v>
+        <v>11579.7616</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>65278.03737</v>
+        <v>66143.91232999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>17063.58101</v>
+        <v>18115.76762</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>19473.4258</v>
+        <v>17314.19629</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>45326.55256</v>
+        <v>46479.87659000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>27321.65838</v>
+        <v>28988.74359</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>73057.82198000001</v>
+        <v>70894.9123</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>42770.45871</v>
+        <v>40019.18827000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>102377.02205</v>
+        <v>94729.62974999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>58506.28137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>50471.69938000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>48529.23</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1234.61022</v>
+        <v>1173.04359</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>709.78135</v>
+        <v>696.56647</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1080.27283</v>
+        <v>895.18524</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2025.9223</v>
+        <v>1823.13157</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1694.15116</v>
+        <v>1505.53675</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1236.44523</v>
+        <v>2003.41067</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>934.56285</v>
+        <v>728.8742900000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1971.48224</v>
+        <v>1773.7895</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2863.67321</v>
+        <v>2340.20457</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>4255.47283</v>
+        <v>3051.52708</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>6078.19091</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4138.18689</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2190.742</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>802.2368299999999</v>
+        <v>1372.95582</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>720.9622099999999</v>
+        <v>729.60807</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>599.10573</v>
+        <v>737.0284300000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>822.06427</v>
+        <v>1274.78835</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1988.4559</v>
+        <v>1046.38708</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>673.05767</v>
+        <v>582.85454</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>645.3605500000001</v>
+        <v>666.6120999999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3107.68332</v>
+        <v>3117.95709</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>559.0001099999999</v>
+        <v>394.68154</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1424.11642</v>
+        <v>1397.55757</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2545.92906</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3111.39702</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>573.9299999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>10925.0123</v>
+        <v>10975.09286</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>11394.95528</v>
+        <v>10153.58706</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>63598.65881</v>
+        <v>64511.69865999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>14215.59444</v>
+        <v>15017.8477</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>15790.81874</v>
+        <v>14762.27246</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>43417.04966</v>
+        <v>43893.61138</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>25741.73498</v>
+        <v>27593.2572</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>67978.65642</v>
+        <v>66003.16571</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>39347.78539</v>
+        <v>37284.30216</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>96697.4328</v>
+        <v>90280.54509999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>49882.1614</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>43222.11547</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>45764.558</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>55444.12958</v>
+        <v>54905.04175</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>58248.77677</v>
+        <v>62680.42814</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>22032.42161</v>
+        <v>19300.17683</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>62490.88257</v>
+        <v>67621.23624</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>116068.42504</v>
+        <v>131118.86811</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>92761.44266</v>
+        <v>96981.01245000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>127429.32438</v>
+        <v>134584.35233</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>61654.91306</v>
+        <v>66802.97010999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>152383.58145</v>
+        <v>172592.78002</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>160986.78736</v>
+        <v>163425.98066</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>306696.45287</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>309502.52824</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>544474.54</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>13883.25786</v>
+        <v>14019.6745</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>14519.39858</v>
+        <v>15140.09089</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>17666.55104</v>
+        <v>18029.71766</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>18334.29219</v>
+        <v>19070.98394</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>28249.787</v>
+        <v>28483.58421</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>27673.90513</v>
+        <v>27802.91638</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>31170.85627</v>
+        <v>32113.32824</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>31518.32316</v>
+        <v>32816.93078</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>39808.75239</v>
+        <v>41927.33297</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>56629.07951</v>
+        <v>56020.00352000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>73730.18066</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>73762.855</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>101873.619</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>41560.87172</v>
+        <v>40885.36725</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>43729.37819</v>
+        <v>47540.33725</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>4365.87057</v>
+        <v>1270.45917</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>44156.59038</v>
+        <v>48550.2523</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>87818.63804000001</v>
+        <v>102635.2839</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>65087.53753</v>
+        <v>69178.09607</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>96258.46811</v>
+        <v>102471.02409</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>30136.5899</v>
+        <v>33986.03933</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>112574.82906</v>
+        <v>130665.44705</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>104357.70785</v>
+        <v>107405.97714</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>232966.27221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>235739.67324</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>442600.921</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1484</v>
+        <v>1373</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1612</v>
+        <v>1476</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1869</v>
+        <v>1701</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1949</v>
+        <v>1783</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2144</v>
+        <v>1848</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2284</v>
+        <v>1908</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2405</v>
+        <v>1969</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2609</v>
+        <v>2093</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2813</v>
+        <v>2239</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2105</v>
+        <v>1902</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1873</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>